--- a/data/trans_orig/IP25B02_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25B02_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{692A75F2-2D83-470C-89AE-E80525D8EC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB6F094B-730C-450A-9530-504F78994ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DA816AC-AB07-4FCF-B263-55BA5F908E1B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECD4E8A0-5A4B-4583-9B04-02779810CC69}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="198">
   <si>
     <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos en fines de semana / solo 2023 en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>3,74%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -86,16 +86,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,86%</t>
+    <t>9,31%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
@@ -104,28 +104,28 @@
     <t>5,95%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
@@ -134,28 +134,28 @@
     <t>7,58%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
@@ -164,28 +164,28 @@
     <t>82,73%</t>
   </si>
   <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,109 +197,109 @@
     <t>10,26%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
   </si>
   <si>
     <t>36,1%</t>
   </si>
   <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
   </si>
   <si>
     <t>43,37%</t>
   </si>
   <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
   </si>
   <si>
     <t>39,5%</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -308,19 +308,19 @@
     <t>15,26%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
   </si>
   <si>
     <t>14,91%</t>
@@ -329,10 +329,13 @@
     <t>11,87%</t>
   </si>
   <si>
+    <t>18,3%</t>
+  </si>
+  <si>
     <t>30,2%</t>
   </si>
   <si>
-    <t>24,84%</t>
+    <t>24,36%</t>
   </si>
   <si>
     <t>36,82%</t>
@@ -341,70 +344,73 @@
     <t>30,96%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>30,55%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
   </si>
   <si>
     <t>35,77%</t>
   </si>
   <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>38,79%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -413,127 +419,127 @@
     <t>30,28%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
   <si>
     <t>32,12%</t>
   </si>
   <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
+    <t>37,8%</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>17,28%</t>
@@ -542,58 +548,58 @@
     <t>15,19%</t>
   </si>
   <si>
-    <t>19,74%</t>
+    <t>19,96%</t>
   </si>
   <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>26,46%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>29,16%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>26,31%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>24,45%</t>
@@ -602,25 +608,25 @@
     <t>21,74%</t>
   </si>
   <si>
-    <t>27,25%</t>
+    <t>27,26%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1035,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54AA663-F442-43F3-900F-9CC7EC3EE0F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DBB242-09D4-4F06-8C0D-BD566948ECB3}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1709,7 +1715,7 @@
         <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1730,13 @@
         <v>61143</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -1739,13 +1745,13 @@
         <v>54521</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>139</v>
@@ -1754,13 +1760,13 @@
         <v>115665</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1781,13 @@
         <v>72419</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -1790,13 +1796,13 @@
         <v>57253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>162</v>
@@ -1805,13 +1811,13 @@
         <v>129672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1832,13 @@
         <v>38021</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -1841,13 +1847,13 @@
         <v>38780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -1856,13 +1862,13 @@
         <v>76801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,7 +1924,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1930,13 +1936,13 @@
         <v>86152</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -1945,13 +1951,13 @@
         <v>61960</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -1960,13 +1966,13 @@
         <v>148112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>91370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -1996,13 +2002,13 @@
         <v>83333</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>228</v>
@@ -2011,13 +2017,13 @@
         <v>174703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2038,13 @@
         <v>78675</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>91</v>
@@ -2047,13 +2053,13 @@
         <v>66908</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>188</v>
@@ -2062,13 +2068,13 @@
         <v>145582</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2089,13 @@
         <v>28302</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -2098,13 +2104,13 @@
         <v>43405</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -2113,13 +2119,13 @@
         <v>71707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2193,13 @@
         <v>137058</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>125</v>
@@ -2202,13 +2208,13 @@
         <v>96880</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>278</v>
@@ -2217,13 +2223,13 @@
         <v>233938</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2244,13 @@
         <v>193105</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>227</v>
@@ -2253,13 +2259,13 @@
         <v>168490</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>468</v>
@@ -2268,13 +2274,13 @@
         <v>361595</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2295,13 @@
         <v>211780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -2304,13 +2310,13 @@
         <v>179878</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>539</v>
@@ -2319,13 +2325,13 @@
         <v>391658</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2346,13 @@
         <v>175365</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>306</v>
@@ -2355,13 +2361,13 @@
         <v>191586</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>598</v>
@@ -2370,13 +2376,13 @@
         <v>366952</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,7 +2438,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25B02_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25B02_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB6F094B-730C-450A-9530-504F78994ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9AA7533-29C6-42D5-B3A3-00A0B3412CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECD4E8A0-5A4B-4583-9B04-02779810CC69}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{537A811A-30D1-4C8D-B142-AD982E4DA066}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="192">
   <si>
     <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos en fines de semana / solo 2023 en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,121 +71,121 @@
     <t>Más de 3h</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
     <t>1,52%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
-    <t>5,95%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>De 1 a 2h</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
   </si>
   <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,439 +194,421 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>15,26%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1041,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DBB242-09D4-4F06-8C0D-BD566948ECB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B80422-BE57-4F2A-8F4A-A4660F437BE1}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1159,10 +1141,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2075</v>
+        <v>785</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1174,10 +1156,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>781</v>
+        <v>2432</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1192,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>2856</v>
+        <v>3217</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1210,10 +1192,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>3306</v>
+        <v>2039</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1225,10 +1207,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>2009</v>
+        <v>3272</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1243,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>5314</v>
+        <v>5311</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1261,10 +1243,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>4206</v>
+        <v>5647</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1276,10 +1258,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>5842</v>
+        <v>4447</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1294,7 +1276,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>10048</v>
+        <v>10094</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1312,10 +1294,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>45933</v>
+        <v>43102</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1327,10 +1309,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I7" s="7">
-        <v>42714</v>
+        <v>48225</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1345,7 +1327,7 @@
         <v>176</v>
       </c>
       <c r="N7" s="7">
-        <v>88647</v>
+        <v>91327</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1363,25 +1345,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>98</v>
+      </c>
+      <c r="D8" s="7">
+        <v>51573</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
         <v>110</v>
       </c>
-      <c r="D8" s="7">
-        <v>55520</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>98</v>
-      </c>
       <c r="I8" s="7">
-        <v>51345</v>
+        <v>58376</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1396,7 +1378,7 @@
         <v>208</v>
       </c>
       <c r="N8" s="7">
-        <v>106865</v>
+        <v>109949</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1416,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>17937</v>
+        <v>8561</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1431,10 +1413,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I9" s="7">
-        <v>8581</v>
+        <v>19090</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1449,7 +1431,7 @@
         <v>42</v>
       </c>
       <c r="N9" s="7">
-        <v>26518</v>
+        <v>27651</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1467,10 +1449,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>37286</v>
+        <v>28068</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1482,10 +1464,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>28627</v>
+        <v>38252</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1500,7 +1482,7 @@
         <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>65913</v>
+        <v>66319</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1518,10 +1500,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7">
-        <v>56480</v>
+        <v>50576</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1533,10 +1515,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I11" s="7">
-        <v>49876</v>
+        <v>58217</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1551,7 +1533,7 @@
         <v>170</v>
       </c>
       <c r="N11" s="7">
-        <v>106356</v>
+        <v>108793</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1569,10 +1551,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D12" s="7">
-        <v>63108</v>
+        <v>67051</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1584,10 +1566,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I12" s="7">
-        <v>66688</v>
+        <v>66501</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1602,7 +1584,7 @@
         <v>221</v>
       </c>
       <c r="N12" s="7">
-        <v>129796</v>
+        <v>133552</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1620,25 +1602,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>250</v>
+      </c>
+      <c r="D13" s="7">
+        <v>154256</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
         <v>275</v>
       </c>
-      <c r="D13" s="7">
-        <v>174811</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="7">
-        <v>250</v>
-      </c>
       <c r="I13" s="7">
-        <v>153771</v>
+        <v>182060</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1653,7 +1635,7 @@
         <v>525</v>
       </c>
       <c r="N13" s="7">
-        <v>328582</v>
+        <v>336315</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1673,10 +1655,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>30894</v>
+        <v>25023</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1688,10 +1670,10 @@
         <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>25559</v>
+        <v>32579</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1706,7 +1688,7 @@
         <v>71</v>
       </c>
       <c r="N14" s="7">
-        <v>56453</v>
+        <v>57603</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1724,10 +1706,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="7">
-        <v>61143</v>
+        <v>53655</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -1739,10 +1721,10 @@
         <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" s="7">
-        <v>54521</v>
+        <v>64468</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -1757,7 +1739,7 @@
         <v>139</v>
       </c>
       <c r="N15" s="7">
-        <v>115665</v>
+        <v>118123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -1775,10 +1757,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>72419</v>
+        <v>56333</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -1790,10 +1772,10 @@
         <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I16" s="7">
-        <v>57253</v>
+        <v>74957</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -1808,7 +1790,7 @@
         <v>162</v>
       </c>
       <c r="N16" s="7">
-        <v>129672</v>
+        <v>131291</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -1826,10 +1808,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7">
-        <v>38021</v>
+        <v>38061</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -1841,10 +1823,10 @@
         <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I17" s="7">
-        <v>38780</v>
+        <v>40486</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -1853,22 +1835,22 @@
         <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
       </c>
       <c r="N17" s="7">
-        <v>76801</v>
+        <v>78547</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,25 +1859,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>233</v>
+      </c>
+      <c r="D18" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
         <v>243</v>
       </c>
-      <c r="D18" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="7">
-        <v>233</v>
-      </c>
       <c r="I18" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1910,7 +1892,7 @@
         <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1924,55 +1906,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>76</v>
+      </c>
+      <c r="D19" s="7">
+        <v>79646</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="7">
         <v>85</v>
       </c>
-      <c r="D19" s="7">
-        <v>86152</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>97527</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="7">
-        <v>76</v>
-      </c>
-      <c r="I19" s="7">
-        <v>61960</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
       </c>
       <c r="N19" s="7">
-        <v>148112</v>
+        <v>177173</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +1963,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>113</v>
+      </c>
+      <c r="D20" s="7">
+        <v>80648</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="7">
         <v>115</v>
       </c>
-      <c r="D20" s="7">
-        <v>91370</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>91955</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="H20" s="7">
-        <v>113</v>
-      </c>
-      <c r="I20" s="7">
-        <v>83333</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>228</v>
       </c>
       <c r="N20" s="7">
-        <v>174703</v>
+        <v>172603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,49 +2014,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
+        <v>91</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63692</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="7">
         <v>97</v>
       </c>
-      <c r="D21" s="7">
-        <v>78675</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="I21" s="7">
+        <v>79995</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="7">
-        <v>91</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66908</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>188</v>
       </c>
       <c r="N21" s="7">
-        <v>145582</v>
+        <v>143688</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,49 +2065,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
+        <v>56</v>
+      </c>
+      <c r="D22" s="7">
+        <v>46542</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="7">
         <v>41</v>
       </c>
-      <c r="D22" s="7">
-        <v>28302</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>30606</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="7">
-        <v>56</v>
-      </c>
-      <c r="I22" s="7">
-        <v>43405</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
       </c>
       <c r="N22" s="7">
-        <v>71707</v>
+        <v>77149</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,25 +2116,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>336</v>
+      </c>
+      <c r="D23" s="7">
+        <v>270529</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
         <v>338</v>
       </c>
-      <c r="D23" s="7">
-        <v>284499</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
-        <v>336</v>
-      </c>
       <c r="I23" s="7">
-        <v>255605</v>
+        <v>300084</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2167,7 +2149,7 @@
         <v>674</v>
       </c>
       <c r="N23" s="7">
-        <v>540104</v>
+        <v>570612</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2187,49 +2169,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>125</v>
+      </c>
+      <c r="D24" s="7">
+        <v>114015</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="7">
         <v>153</v>
       </c>
-      <c r="D24" s="7">
-        <v>137058</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>151628</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" s="7">
-        <v>125</v>
-      </c>
-      <c r="I24" s="7">
-        <v>96880</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>278</v>
       </c>
       <c r="N24" s="7">
-        <v>233938</v>
+        <v>265643</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,49 +2220,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
+        <v>227</v>
+      </c>
+      <c r="D25" s="7">
+        <v>164409</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="7">
         <v>241</v>
       </c>
-      <c r="D25" s="7">
-        <v>193105</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>197947</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H25" s="7">
-        <v>227</v>
-      </c>
-      <c r="I25" s="7">
-        <v>168490</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>468</v>
       </c>
       <c r="N25" s="7">
-        <v>361595</v>
+        <v>362356</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,49 +2271,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
+        <v>259</v>
+      </c>
+      <c r="D26" s="7">
+        <v>176249</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="7">
         <v>280</v>
       </c>
-      <c r="D26" s="7">
-        <v>211780</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>217616</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="H26" s="7">
-        <v>259</v>
-      </c>
-      <c r="I26" s="7">
-        <v>179878</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>539</v>
       </c>
       <c r="N26" s="7">
-        <v>391658</v>
+        <v>393865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,49 +2322,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
+        <v>306</v>
+      </c>
+      <c r="D27" s="7">
+        <v>194756</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="7">
         <v>292</v>
       </c>
-      <c r="D27" s="7">
-        <v>175365</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="I27" s="7">
+        <v>185818</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="7">
-        <v>306</v>
-      </c>
-      <c r="I27" s="7">
-        <v>191586</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>598</v>
       </c>
       <c r="N27" s="7">
-        <v>366952</v>
+        <v>380574</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,25 +2373,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>917</v>
+      </c>
+      <c r="D28" s="7">
+        <v>649430</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
         <v>966</v>
       </c>
-      <c r="D28" s="7">
-        <v>717308</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="7">
-        <v>917</v>
-      </c>
       <c r="I28" s="7">
-        <v>636834</v>
+        <v>753009</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2424,7 +2406,7 @@
         <v>1883</v>
       </c>
       <c r="N28" s="7">
-        <v>1354142</v>
+        <v>1402439</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2438,7 +2420,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
